--- a/config_1.12/box_exchange_server.xlsx
+++ b/config_1.12/box_exchange_server.xlsx
@@ -5389,7 +5389,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7493,7 +7493,7 @@
         <v>691</v>
       </c>
       <c r="C71" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="D71" s="84">
         <v>1610985599</v>
@@ -7521,7 +7521,7 @@
         <v>692</v>
       </c>
       <c r="C72" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="D72" s="84">
         <v>1610985599</v>
@@ -7549,7 +7549,7 @@
         <v>693</v>
       </c>
       <c r="C73" s="84">
-        <v>1610407800</v>
+        <v>1610409600</v>
       </c>
       <c r="D73" s="84">
         <v>1610985599</v>
